--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H2">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03932533333333333</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N2">
-        <v>0.117976</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O2">
-        <v>0.03588667238536742</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P2">
-        <v>0.03588667238536743</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q2">
-        <v>0.04848791315644444</v>
+        <v>0.609311135646889</v>
       </c>
       <c r="R2">
-        <v>0.4363912184079999</v>
+        <v>5.483800220822001</v>
       </c>
       <c r="S2">
-        <v>0.005897262616575705</v>
+        <v>0.08423268615115861</v>
       </c>
       <c r="T2">
-        <v>0.005897262616575706</v>
+        <v>0.0842326861511586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H3">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.727233</v>
       </c>
       <c r="O3">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P3">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q3">
-        <v>0.2988913893376667</v>
+        <v>0.5799345415673334</v>
       </c>
       <c r="R3">
-        <v>2.690022504039</v>
+        <v>5.219410874106001</v>
       </c>
       <c r="S3">
-        <v>0.03635217319149828</v>
+        <v>0.08017159275481667</v>
       </c>
       <c r="T3">
-        <v>0.03635217319149828</v>
+        <v>0.08017159275481665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H4">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.743817</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N4">
-        <v>2.231451</v>
+        <v>0.039967</v>
       </c>
       <c r="O4">
-        <v>0.6787766238980854</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P4">
-        <v>0.6787766238980855</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q4">
-        <v>0.9171221460369999</v>
+        <v>0.03187182625488889</v>
       </c>
       <c r="R4">
-        <v>8.254099314332999</v>
+        <v>0.286846436294</v>
       </c>
       <c r="S4">
-        <v>0.1115434712400867</v>
+        <v>0.004406040495455732</v>
       </c>
       <c r="T4">
-        <v>0.1115434712400867</v>
+        <v>0.00440604049545573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H5">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I5">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J5">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07026666666666666</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N5">
-        <v>0.2108</v>
+        <v>1.711849</v>
       </c>
       <c r="O5">
-        <v>0.06412245320095149</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P5">
-        <v>0.06412245320095149</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q5">
-        <v>0.08663840182222221</v>
+        <v>1.365120071624222</v>
       </c>
       <c r="R5">
-        <v>0.7797456163999998</v>
+        <v>12.286080644618</v>
       </c>
       <c r="S5">
-        <v>0.01053725299700074</v>
+        <v>0.1887175924163784</v>
       </c>
       <c r="T5">
-        <v>0.01053725299700073</v>
+        <v>0.1887175924163784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.159122333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H6">
-        <v>6.477366999999999</v>
+        <v>7.177082</v>
       </c>
       <c r="I6">
-        <v>0.2877620026318713</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J6">
-        <v>0.2877620026318713</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.03932533333333333</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N6">
-        <v>0.117976</v>
+        <v>0.254057</v>
       </c>
       <c r="O6">
-        <v>0.03588667238536742</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P6">
-        <v>0.03588667238536743</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q6">
-        <v>0.08490820546577775</v>
+        <v>0.2025986579637778</v>
       </c>
       <c r="R6">
-        <v>0.7641738491919999</v>
+        <v>1.823387921674</v>
       </c>
       <c r="S6">
-        <v>0.0103268207134072</v>
+        <v>0.02800774214111634</v>
       </c>
       <c r="T6">
-        <v>0.0103268207134072</v>
+        <v>0.02800774214111633</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I7">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J7">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.242411</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N7">
-        <v>0.727233</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O7">
-        <v>0.2212142505155957</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P7">
-        <v>0.2212142505155957</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q7">
-        <v>0.5233950039456666</v>
+        <v>0.549907586784111</v>
       </c>
       <c r="R7">
-        <v>4.710555035511</v>
+        <v>4.949168281057</v>
       </c>
       <c r="S7">
-        <v>0.06365705573907629</v>
+        <v>0.07602059187799047</v>
       </c>
       <c r="T7">
-        <v>0.06365705573907628</v>
+        <v>0.07602059187799047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I8">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J8">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.743817</v>
+        <v>0.242411</v>
       </c>
       <c r="N8">
-        <v>2.231451</v>
+        <v>0.727233</v>
       </c>
       <c r="O8">
-        <v>0.6787766238980854</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P8">
-        <v>0.6787766238980855</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q8">
-        <v>1.605991896613</v>
+        <v>0.5233950039456666</v>
       </c>
       <c r="R8">
-        <v>14.453927069517</v>
+        <v>4.710555035511</v>
       </c>
       <c r="S8">
-        <v>0.1953261206326136</v>
+        <v>0.07235542651560738</v>
       </c>
       <c r="T8">
-        <v>0.1953261206326136</v>
+        <v>0.07235542651560738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I9">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J9">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07026666666666666</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N9">
-        <v>0.2108</v>
+        <v>0.039967</v>
       </c>
       <c r="O9">
-        <v>0.06412245320095149</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P9">
-        <v>0.06412245320095149</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q9">
-        <v>0.1517143292888888</v>
+        <v>0.02876454743211111</v>
       </c>
       <c r="R9">
-        <v>1.3654289636</v>
+        <v>0.258880926889</v>
       </c>
       <c r="S9">
-        <v>0.01845200554677425</v>
+        <v>0.003976482546239349</v>
       </c>
       <c r="T9">
-        <v>0.01845200554677424</v>
+        <v>0.003976482546239348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6462516666666667</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H10">
-        <v>1.938755</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I10">
-        <v>0.08613067955120558</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J10">
-        <v>0.08613067955120557</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03932533333333333</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N10">
-        <v>0.117976</v>
+        <v>1.711849</v>
       </c>
       <c r="O10">
-        <v>0.03588667238536742</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P10">
-        <v>0.03588667238536743</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q10">
-        <v>0.02541406220888889</v>
+        <v>1.232030469064777</v>
       </c>
       <c r="R10">
-        <v>0.22872655988</v>
+        <v>11.088274221583</v>
       </c>
       <c r="S10">
-        <v>0.003090943479383179</v>
+        <v>0.1703189548952206</v>
       </c>
       <c r="T10">
-        <v>0.00309094347938318</v>
+        <v>0.1703189548952206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6462516666666667</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H11">
-        <v>1.938755</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I11">
-        <v>0.08613067955120558</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J11">
-        <v>0.08613067955120557</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.242411</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N11">
-        <v>0.727233</v>
+        <v>0.254057</v>
       </c>
       <c r="O11">
-        <v>0.2212142505155957</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P11">
-        <v>0.2212142505155957</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q11">
-        <v>0.1566585127683333</v>
+        <v>0.1828467142132222</v>
       </c>
       <c r="R11">
-        <v>1.409926614915</v>
+        <v>1.645620427919</v>
       </c>
       <c r="S11">
-        <v>0.01905333372331888</v>
+        <v>0.02527718433332325</v>
       </c>
       <c r="T11">
-        <v>0.01905333372331888</v>
+        <v>0.02527718433332324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H12">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I12">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J12">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.743817</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N12">
-        <v>2.231451</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O12">
-        <v>0.6787766238980854</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P12">
-        <v>0.6787766238980855</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q12">
-        <v>0.480692975945</v>
+        <v>0.02464324237588889</v>
       </c>
       <c r="R12">
-        <v>4.326236783504999</v>
+        <v>0.221789181383</v>
       </c>
       <c r="S12">
-        <v>0.05846349187981519</v>
+        <v>0.003406743089622672</v>
       </c>
       <c r="T12">
-        <v>0.05846349187981519</v>
+        <v>0.003406743089622671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H13">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I13">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J13">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07026666666666666</v>
+        <v>0.242411</v>
       </c>
       <c r="N13">
-        <v>0.2108</v>
+        <v>0.727233</v>
       </c>
       <c r="O13">
-        <v>0.06412245320095149</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P13">
-        <v>0.06412245320095149</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q13">
-        <v>0.04540995044444444</v>
+        <v>0.02345512273433334</v>
       </c>
       <c r="R13">
-        <v>0.408689554</v>
+        <v>0.211096104609</v>
       </c>
       <c r="S13">
-        <v>0.005522910468688329</v>
+        <v>0.003242494476685497</v>
       </c>
       <c r="T13">
-        <v>0.005522910468688328</v>
+        <v>0.003242494476685496</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.056275666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H14">
-        <v>6.168827</v>
+        <v>0.290273</v>
       </c>
       <c r="I14">
-        <v>0.2740548762189265</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J14">
-        <v>0.2740548762189265</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03932533333333333</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N14">
-        <v>0.117976</v>
+        <v>0.039967</v>
       </c>
       <c r="O14">
-        <v>0.03588667238536742</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P14">
-        <v>0.03588667238536743</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q14">
-        <v>0.08086372601688888</v>
+        <v>0.001289037887888889</v>
       </c>
       <c r="R14">
-        <v>0.727773534152</v>
+        <v>0.011601340991</v>
       </c>
       <c r="S14">
-        <v>0.009834917558481036</v>
+        <v>0.0001781998021950176</v>
       </c>
       <c r="T14">
-        <v>0.009834917558481038</v>
+        <v>0.0001781998021950176</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.056275666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H15">
-        <v>6.168827</v>
+        <v>0.290273</v>
       </c>
       <c r="I15">
-        <v>0.2740548762189265</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J15">
-        <v>0.2740548762189265</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.242411</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N15">
-        <v>0.727233</v>
+        <v>1.711849</v>
       </c>
       <c r="O15">
-        <v>0.2212142505155957</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P15">
-        <v>0.2212142505155957</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q15">
-        <v>0.4984638406323333</v>
+        <v>0.05521150497522222</v>
       </c>
       <c r="R15">
-        <v>4.486174565691</v>
+        <v>0.496903544777</v>
       </c>
       <c r="S15">
-        <v>0.06062484404291416</v>
+        <v>0.007632575704649804</v>
       </c>
       <c r="T15">
-        <v>0.06062484404291416</v>
+        <v>0.007632575704649803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.056275666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H16">
-        <v>6.168827</v>
+        <v>0.290273</v>
       </c>
       <c r="I16">
-        <v>0.2740548762189265</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J16">
-        <v>0.2740548762189265</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.743817</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N16">
-        <v>2.231451</v>
+        <v>0.254057</v>
       </c>
       <c r="O16">
-        <v>0.6787766238980854</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P16">
-        <v>0.6787766238980855</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q16">
-        <v>1.529492797553</v>
+        <v>0.008193987506777778</v>
       </c>
       <c r="R16">
-        <v>13.765435177977</v>
+        <v>0.07374588756099999</v>
       </c>
       <c r="S16">
-        <v>0.1860220436426906</v>
+        <v>0.001132757203349253</v>
       </c>
       <c r="T16">
-        <v>0.1860220436426906</v>
+        <v>0.001132757203349252</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H17">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I17">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J17">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.07026666666666666</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N17">
-        <v>0.2108</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O17">
-        <v>0.06412245320095149</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P17">
-        <v>0.06412245320095149</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q17">
-        <v>0.1444876368444444</v>
+        <v>0.2194698863108889</v>
       </c>
       <c r="R17">
-        <v>1.3003887316</v>
+        <v>1.975228976798</v>
       </c>
       <c r="S17">
-        <v>0.01757307097484067</v>
+        <v>0.03034006269002275</v>
       </c>
       <c r="T17">
-        <v>0.01757307097484067</v>
+        <v>0.03034006269002274</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.09591500000000001</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H18">
-        <v>0.287745</v>
+        <v>2.585138</v>
       </c>
       <c r="I18">
-        <v>0.01278329257047005</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J18">
-        <v>0.01278329257047004</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,33 +1553,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.03932533333333333</v>
+        <v>0.242411</v>
       </c>
       <c r="N18">
-        <v>0.117976</v>
+        <v>0.727233</v>
       </c>
       <c r="O18">
-        <v>0.03588667238536742</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P18">
-        <v>0.03588667238536743</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q18">
-        <v>0.003771889346666667</v>
+        <v>0.2088886292393334</v>
       </c>
       <c r="R18">
-        <v>0.03394700412000001</v>
+        <v>1.879997663154</v>
       </c>
       <c r="S18">
-        <v>0.0004587498324827599</v>
+        <v>0.02887728340724005</v>
       </c>
       <c r="T18">
-        <v>0.0004587498324827599</v>
+        <v>0.02887728340724004</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.09591500000000001</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H19">
-        <v>0.287745</v>
+        <v>2.585138</v>
       </c>
       <c r="I19">
-        <v>0.01278329257047005</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J19">
-        <v>0.01278329257047004</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.242411</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N19">
-        <v>0.727233</v>
+        <v>0.039967</v>
       </c>
       <c r="O19">
-        <v>0.2212142505155957</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P19">
-        <v>0.2212142505155957</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q19">
-        <v>0.023250851065</v>
+        <v>0.01148002338288889</v>
       </c>
       <c r="R19">
-        <v>0.209257659585</v>
+        <v>0.103320210446</v>
       </c>
       <c r="S19">
-        <v>0.002827846485098113</v>
+        <v>0.001587026972011946</v>
       </c>
       <c r="T19">
-        <v>0.002827846485098113</v>
+        <v>0.001587026972011945</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.09591500000000001</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H20">
-        <v>0.287745</v>
+        <v>2.585138</v>
       </c>
       <c r="I20">
-        <v>0.01278329257047005</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J20">
-        <v>0.01278329257047004</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.743817</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N20">
-        <v>2.231451</v>
+        <v>1.711849</v>
       </c>
       <c r="O20">
-        <v>0.6787766238980854</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P20">
-        <v>0.6787766238980855</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q20">
-        <v>0.07134320755500001</v>
+        <v>0.4917073222402222</v>
       </c>
       <c r="R20">
-        <v>0.642088867995</v>
+        <v>4.425365900162</v>
       </c>
       <c r="S20">
-        <v>0.008677000173285135</v>
+        <v>0.06797484262045379</v>
       </c>
       <c r="T20">
-        <v>0.008677000173285133</v>
+        <v>0.06797484262045378</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>24</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8617126666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.585138</v>
+      </c>
+      <c r="I21">
+        <v>0.1388674212450226</v>
+      </c>
+      <c r="J21">
+        <v>0.1388674212450226</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.09591500000000001</v>
-      </c>
-      <c r="H21">
-        <v>0.287745</v>
-      </c>
-      <c r="I21">
-        <v>0.01278329257047005</v>
-      </c>
-      <c r="J21">
-        <v>0.01278329257047004</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M21">
-        <v>0.07026666666666666</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N21">
-        <v>0.2108</v>
+        <v>0.254057</v>
       </c>
       <c r="O21">
-        <v>0.06412245320095149</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P21">
-        <v>0.06412245320095149</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q21">
-        <v>0.006739627333333334</v>
+        <v>0.07297471165177777</v>
       </c>
       <c r="R21">
-        <v>0.060656646</v>
+        <v>0.656772404866</v>
       </c>
       <c r="S21">
-        <v>0.0008196960796040363</v>
+        <v>0.01008820555529409</v>
       </c>
       <c r="T21">
-        <v>0.0008196960796040361</v>
+        <v>0.01008820555529408</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,51 +1783,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.312594</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H22">
-        <v>3.937782</v>
+        <v>0.665872</v>
       </c>
       <c r="I22">
-        <v>0.1749389889823652</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J22">
-        <v>0.1749389889823652</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03932533333333333</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N22">
-        <v>0.117976</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O22">
-        <v>0.03588667238536742</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P22">
-        <v>0.03588667238536743</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q22">
-        <v>0.05161819658133333</v>
+        <v>0.05653038721244445</v>
       </c>
       <c r="R22">
-        <v>0.464563769232</v>
+        <v>0.508773484912</v>
       </c>
       <c r="S22">
-        <v>0.00627797818503754</v>
+        <v>0.007814901263890294</v>
       </c>
       <c r="T22">
-        <v>0.00627797818503754</v>
+        <v>0.007814901263890294</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.312594</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H23">
-        <v>3.937782</v>
+        <v>0.665872</v>
       </c>
       <c r="I23">
-        <v>0.1749389889823652</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J23">
-        <v>0.1749389889823652</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1869,27 +1869,27 @@
         <v>0.727233</v>
       </c>
       <c r="O23">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P23">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q23">
-        <v>0.318187224134</v>
+        <v>0.05380489913066667</v>
       </c>
       <c r="R23">
-        <v>2.863685017206</v>
+        <v>0.484244092176</v>
       </c>
       <c r="S23">
-        <v>0.03869899733368996</v>
+        <v>0.00743812301584896</v>
       </c>
       <c r="T23">
-        <v>0.03869899733368995</v>
+        <v>0.007438123015848959</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,51 +1907,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.312594</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H24">
-        <v>3.937782</v>
+        <v>0.665872</v>
       </c>
       <c r="I24">
-        <v>0.1749389889823652</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J24">
-        <v>0.1749389889823652</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.743817</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N24">
-        <v>2.231451</v>
+        <v>0.039967</v>
       </c>
       <c r="O24">
-        <v>0.6787766238980854</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P24">
-        <v>0.6787766238980855</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q24">
-        <v>0.9763297312979999</v>
+        <v>0.002956989580444444</v>
       </c>
       <c r="R24">
-        <v>8.786967581682001</v>
+        <v>0.026612906224</v>
       </c>
       <c r="S24">
-        <v>0.1187444963295942</v>
+        <v>0.0004087815907342425</v>
       </c>
       <c r="T24">
-        <v>0.1187444963295942</v>
+        <v>0.0004087815907342424</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,46 +1969,418 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.312594</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H25">
-        <v>3.937782</v>
+        <v>0.665872</v>
       </c>
       <c r="I25">
-        <v>0.1749389889823652</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J25">
-        <v>0.1749389889823652</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5706163333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.711849</v>
+      </c>
+      <c r="O25">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="P25">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="Q25">
+        <v>0.1266524797031111</v>
+      </c>
+      <c r="R25">
+        <v>1.139872317328</v>
+      </c>
+      <c r="S25">
+        <v>0.01750875365468567</v>
+      </c>
+      <c r="T25">
+        <v>0.01750875365468567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2219573333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.665872</v>
+      </c>
+      <c r="I26">
+        <v>0.03576904889381755</v>
+      </c>
+      <c r="J26">
+        <v>0.03576904889381755</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.08468566666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.254057</v>
+      </c>
+      <c r="O26">
+        <v>0.07264630872272121</v>
+      </c>
+      <c r="P26">
+        <v>0.0726463087227212</v>
+      </c>
+      <c r="Q26">
+        <v>0.01879660474488889</v>
+      </c>
+      <c r="R26">
+        <v>0.169169442704</v>
+      </c>
+      <c r="S26">
+        <v>0.002598489368658379</v>
+      </c>
+      <c r="T26">
+        <v>0.002598489368658378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4733796666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.420139</v>
+      </c>
+      <c r="I27">
+        <v>0.0762864654573509</v>
+      </c>
+      <c r="J27">
+        <v>0.07628646545735089</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.2546903333333334</v>
+      </c>
+      <c r="N27">
+        <v>0.7640710000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.2184822215175269</v>
+      </c>
+      <c r="P27">
+        <v>0.2184822215175269</v>
+      </c>
+      <c r="Q27">
+        <v>0.1205652250965556</v>
+      </c>
+      <c r="R27">
+        <v>1.085087025869</v>
+      </c>
+      <c r="S27">
+        <v>0.0166672364448421</v>
+      </c>
+      <c r="T27">
+        <v>0.0166672364448421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4733796666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.420139</v>
+      </c>
+      <c r="I28">
+        <v>0.0762864654573509</v>
+      </c>
+      <c r="J28">
+        <v>0.07628646545735089</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.242411</v>
+      </c>
+      <c r="N28">
+        <v>0.727233</v>
+      </c>
+      <c r="O28">
+        <v>0.2079485825281363</v>
+      </c>
+      <c r="P28">
+        <v>0.2079485825281362</v>
+      </c>
+      <c r="Q28">
+        <v>0.1147524383763334</v>
+      </c>
+      <c r="R28">
+        <v>1.032771945387</v>
+      </c>
+      <c r="S28">
+        <v>0.01586366235793775</v>
+      </c>
+      <c r="T28">
+        <v>0.01586366235793775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4733796666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.420139</v>
+      </c>
+      <c r="I29">
+        <v>0.0762864654573509</v>
+      </c>
+      <c r="J29">
+        <v>0.07628646545735089</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M25">
-        <v>0.07026666666666666</v>
-      </c>
-      <c r="N25">
-        <v>0.2108</v>
-      </c>
-      <c r="O25">
-        <v>0.06412245320095149</v>
-      </c>
-      <c r="P25">
-        <v>0.06412245320095149</v>
-      </c>
-      <c r="Q25">
-        <v>0.09223160506666665</v>
-      </c>
-      <c r="R25">
-        <v>0.8300844456000001</v>
-      </c>
-      <c r="S25">
-        <v>0.01121751713404348</v>
-      </c>
-      <c r="T25">
-        <v>0.01121751713404348</v>
+      <c r="M29">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.039967</v>
+      </c>
+      <c r="O29">
+        <v>0.01142836064631559</v>
+      </c>
+      <c r="P29">
+        <v>0.01142836064631558</v>
+      </c>
+      <c r="Q29">
+        <v>0.006306521712555556</v>
+      </c>
+      <c r="R29">
+        <v>0.05675869541300001</v>
+      </c>
+      <c r="S29">
+        <v>0.0008718292396793024</v>
+      </c>
+      <c r="T29">
+        <v>0.0008718292396793022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4733796666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.420139</v>
+      </c>
+      <c r="I30">
+        <v>0.0762864654573509</v>
+      </c>
+      <c r="J30">
+        <v>0.07628646545735089</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.5706163333333333</v>
+      </c>
+      <c r="N30">
+        <v>1.711849</v>
+      </c>
+      <c r="O30">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="P30">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="Q30">
+        <v>0.2701181696678889</v>
+      </c>
+      <c r="R30">
+        <v>2.431063527011</v>
+      </c>
+      <c r="S30">
+        <v>0.03734180729391183</v>
+      </c>
+      <c r="T30">
+        <v>0.03734180729391182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4733796666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.420139</v>
+      </c>
+      <c r="I31">
+        <v>0.0762864654573509</v>
+      </c>
+      <c r="J31">
+        <v>0.07628646545735089</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.08468566666666666</v>
+      </c>
+      <c r="N31">
+        <v>0.254057</v>
+      </c>
+      <c r="O31">
+        <v>0.07264630872272121</v>
+      </c>
+      <c r="P31">
+        <v>0.0726463087227212</v>
+      </c>
+      <c r="Q31">
+        <v>0.04008847265811111</v>
+      </c>
+      <c r="R31">
+        <v>0.360796253923</v>
+      </c>
+      <c r="S31">
+        <v>0.005541930120979921</v>
+      </c>
+      <c r="T31">
+        <v>0.005541930120979919</v>
       </c>
     </row>
   </sheetData>
